--- a/biology/Médecine/Syndrome_de_Larsen/Syndrome_de_Larsen.xlsx
+++ b/biology/Médecine/Syndrome_de_Larsen/Syndrome_de_Larsen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Larsen est une maladie constitutionnelle de l'os dont la caractéristique essentielle est l'existence de dislocations des articulations atteignant surtout le genou, le poignet et l'épaule. Les autres signes cliniques sont : un faciès caractéristique, une désaxation des doigts et des pieds bots bilatéraux.
@@ -514,9 +526,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:150250 [1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:150250 
  Portail de la médecine                     </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Associations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Association des personnes de petite taille</t>
         </is>
